--- a/templates/AutomationOrg/POData_AutomationOrg.xlsx
+++ b/templates/AutomationOrg/POData_AutomationOrg.xlsx
@@ -442,7 +442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="318" x14ac:knownFonts="1">
+  <fonts count="342" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,6 +479,150 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2373,7 +2517,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="157">
+  <borders count="169">
     <border>
       <left/>
       <right/>
@@ -2849,11 +2993,47 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="322">
+  <cellXfs count="346">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -3178,8 +3358,32 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="154" fillId="0" fontId="313" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="314" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="155" fillId="0" fontId="315" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="317" fillId="0" borderId="156" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="316" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="156" fillId="0" fontId="317" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="318" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="157" fillId="0" fontId="319" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="320" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="158" fillId="0" fontId="321" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="322" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="159" fillId="0" fontId="323" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="324" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="160" fillId="0" fontId="325" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="326" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="161" fillId="0" fontId="327" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="328" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="162" fillId="0" fontId="329" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="330" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="163" fillId="0" fontId="331" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="332" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="164" fillId="0" fontId="333" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="334" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="165" fillId="0" fontId="335" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="336" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="166" fillId="0" fontId="337" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="338" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="167" fillId="0" fontId="339" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="341" fillId="0" borderId="168" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>

--- a/templates/AutomationOrg/POData_AutomationOrg.xlsx
+++ b/templates/AutomationOrg/POData_AutomationOrg.xlsx
@@ -442,7 +442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="342" x14ac:knownFonts="1">
+  <fonts count="318" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,150 +479,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2517,7 +2373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="169">
+  <borders count="157">
     <border>
       <left/>
       <right/>
@@ -2993,47 +2849,11 @@
     <border>
       <bottom style="thin"/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="346">
+  <cellXfs count="322">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -3358,32 +3178,8 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="154" fillId="0" fontId="313" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="314" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="155" fillId="0" fontId="315" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="316" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="156" fillId="0" fontId="317" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="318" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="157" fillId="0" fontId="319" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="320" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="158" fillId="0" fontId="321" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="322" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="159" fillId="0" fontId="323" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="324" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="160" fillId="0" fontId="325" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="326" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="161" fillId="0" fontId="327" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="328" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="162" fillId="0" fontId="329" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="330" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="163" fillId="0" fontId="331" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="332" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="164" fillId="0" fontId="333" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="334" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="165" fillId="0" fontId="335" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="336" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="166" fillId="0" fontId="337" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="338" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="167" fillId="0" fontId="339" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="341" fillId="0" borderId="168" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="317" fillId="0" borderId="156" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>

--- a/templates/AutomationOrg/POData_AutomationOrg.xlsx
+++ b/templates/AutomationOrg/POData_AutomationOrg.xlsx
@@ -442,7 +442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="318" x14ac:knownFonts="1">
+  <fonts count="382" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,6 +479,390 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2373,7 +2757,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="157">
+  <borders count="189">
     <border>
       <left/>
       <right/>
@@ -2849,11 +3233,107 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="322">
+  <cellXfs count="386">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -3178,8 +3658,72 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="154" fillId="0" fontId="313" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="314" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="155" fillId="0" fontId="315" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="317" fillId="0" borderId="156" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="316" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="156" fillId="0" fontId="317" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="318" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="157" fillId="0" fontId="319" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="320" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="158" fillId="0" fontId="321" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="322" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="159" fillId="0" fontId="323" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="324" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="160" fillId="0" fontId="325" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="326" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="161" fillId="0" fontId="327" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="328" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="162" fillId="0" fontId="329" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="330" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="163" fillId="0" fontId="331" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="332" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="164" fillId="0" fontId="333" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="334" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="165" fillId="0" fontId="335" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="336" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="166" fillId="0" fontId="337" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="338" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="167" fillId="0" fontId="339" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="340" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="168" fillId="0" fontId="341" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="342" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="169" fillId="0" fontId="343" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="344" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="170" fillId="0" fontId="345" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="346" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="171" fillId="0" fontId="347" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="348" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="172" fillId="0" fontId="349" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="350" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="173" fillId="0" fontId="351" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="352" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="174" fillId="0" fontId="353" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="354" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="175" fillId="0" fontId="355" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="356" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="176" fillId="0" fontId="357" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="358" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="177" fillId="0" fontId="359" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="360" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="178" fillId="0" fontId="361" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="362" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="179" fillId="0" fontId="363" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="364" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="180" fillId="0" fontId="365" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="366" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="181" fillId="0" fontId="367" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="368" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="182" fillId="0" fontId="369" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="370" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="183" fillId="0" fontId="371" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="372" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="184" fillId="0" fontId="373" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="374" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="185" fillId="0" fontId="375" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="376" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="186" fillId="0" fontId="377" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="378" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="187" fillId="0" fontId="379" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="381" fillId="0" borderId="188" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>

--- a/templates/AutomationOrg/POData_AutomationOrg.xlsx
+++ b/templates/AutomationOrg/POData_AutomationOrg.xlsx
@@ -442,7 +442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="382" x14ac:knownFonts="1">
+  <fonts count="318" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,390 +479,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2757,7 +2373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="189">
+  <borders count="157">
     <border>
       <left/>
       <right/>
@@ -3233,107 +2849,11 @@
     <border>
       <bottom style="thin"/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="386">
+  <cellXfs count="322">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -3658,72 +3178,8 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="154" fillId="0" fontId="313" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="314" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="155" fillId="0" fontId="315" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="316" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="156" fillId="0" fontId="317" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="318" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="157" fillId="0" fontId="319" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="320" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="158" fillId="0" fontId="321" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="322" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="159" fillId="0" fontId="323" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="324" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="160" fillId="0" fontId="325" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="326" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="161" fillId="0" fontId="327" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="328" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="162" fillId="0" fontId="329" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="330" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="163" fillId="0" fontId="331" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="332" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="164" fillId="0" fontId="333" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="334" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="165" fillId="0" fontId="335" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="336" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="166" fillId="0" fontId="337" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="338" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="167" fillId="0" fontId="339" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="340" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="168" fillId="0" fontId="341" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="342" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="169" fillId="0" fontId="343" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="344" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="170" fillId="0" fontId="345" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="346" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="171" fillId="0" fontId="347" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="348" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="172" fillId="0" fontId="349" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="350" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="173" fillId="0" fontId="351" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="352" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="174" fillId="0" fontId="353" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="354" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="175" fillId="0" fontId="355" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="356" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="176" fillId="0" fontId="357" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="358" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="177" fillId="0" fontId="359" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="360" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="178" fillId="0" fontId="361" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="362" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="179" fillId="0" fontId="363" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="364" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="180" fillId="0" fontId="365" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="366" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="181" fillId="0" fontId="367" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="368" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="182" fillId="0" fontId="369" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="370" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="183" fillId="0" fontId="371" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="372" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="184" fillId="0" fontId="373" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="374" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="185" fillId="0" fontId="375" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="376" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="186" fillId="0" fontId="377" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="378" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="187" fillId="0" fontId="379" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="381" fillId="0" borderId="188" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="317" fillId="0" borderId="156" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>

--- a/templates/AutomationOrg/POData_AutomationOrg.xlsx
+++ b/templates/AutomationOrg/POData_AutomationOrg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Namrata\git\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E4C8EB-E989-4429-86FE-9958A826E80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21F9BCB-20D0-4EEA-99BE-6400878B94FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="11" activeTab="14" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
   </bookViews>
   <sheets>
     <sheet name="PurchaseOrder" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="127">
   <si>
     <t>Vendor</t>
   </si>
@@ -1127,7 +1127,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,7 +1181,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,15 +1251,15 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01922CF7-780E-4770-868D-4754A14FF7E5}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1276,7 +1276,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1284,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -1293,21 +1293,7 @@
         <v>111.8532</v>
       </c>
       <c r="E2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>150.14230000000001</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1317,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B3CC08-5902-46B1-B680-4FBFE135756B}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,12 +1317,13 @@
     <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1356,16 +1343,19 @@
         <v>43</v>
       </c>
       <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
         <v>106</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>107</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1382,16 +1372,19 @@
         <v>44</v>
       </c>
       <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
         <v>110</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>115</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1408,12 +1401,15 @@
         <v>44</v>
       </c>
       <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
         <v>109</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>114</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1434,7 +1430,7 @@
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1535,9 +1531,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1578,7 +1575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6EF229-A232-4FA4-B9BE-B547E34B6D44}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1811,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AF96F5-6B31-480B-85BF-591CD9154932}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
